--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E9DDB847-81B1-497C-ACFA-DCCF890945C6/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB0B2BC9-1581-D14B-A4A7-B450AA898FB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB148DFD-5DBA-714D-A1F3-E0F2F333F8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23680" yWindow="9780" windowWidth="13480" windowHeight="15020" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t>nid</t>
   </si>
@@ -276,18 +276,6 @@
     <t>n99b_3</t>
   </si>
   <si>
-    <t>me16b+me16c</t>
-  </si>
-  <si>
-    <t>nc1</t>
-  </si>
-  <si>
-    <t>nt1</t>
-  </si>
-  <si>
-    <t>me13b+me15b</t>
-  </si>
-  <si>
     <t>B73_dev41</t>
   </si>
   <si>
@@ -304,6 +292,30 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>nc01</t>
+  </si>
+  <si>
+    <t>mec01</t>
+  </si>
+  <si>
+    <t>nc02</t>
+  </si>
+  <si>
+    <t>mec02</t>
+  </si>
+  <si>
+    <t>stelpflug2016+walley2016+briggs</t>
+  </si>
+  <si>
+    <t>B73_dev64</t>
+  </si>
+  <si>
+    <t>nt01</t>
+  </si>
+  <si>
+    <t>met01</t>
   </si>
 </sst>
 </file>
@@ -656,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="F31" sqref="A1:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +701,7 @@
         <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -740,7 +752,7 @@
         <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -771,7 +783,7 @@
         <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -802,7 +814,7 @@
         <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,33 +1144,47 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" t="s">
         <v>83</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" t="s">
         <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E9DDB847-81B1-497C-ACFA-DCCF890945C6/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FDEDEC09-03FD-4AE5-9A47-46A9C9C7EC23/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB148DFD-5DBA-714D-A1F3-E0F2F333F8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E128E-BCD5-8442-A952-B3ED552E3FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23680" yWindow="9780" windowWidth="13480" windowHeight="15020" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="22580" yWindow="10240" windowWidth="13480" windowHeight="15020" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>nid</t>
   </si>
@@ -42,9 +42,6 @@
     <t>SAM1</t>
   </si>
   <si>
-    <t>SAM2</t>
-  </si>
-  <si>
     <t>hirsch2014</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>me15a</t>
   </si>
   <si>
-    <t>n13a_1</t>
-  </si>
-  <si>
-    <t>n13a_2</t>
-  </si>
-  <si>
     <t>n16a</t>
   </si>
   <si>
@@ -316,6 +307,9 @@
   </si>
   <si>
     <t>met01</t>
+  </si>
+  <si>
+    <t>n13a</t>
   </si>
 </sst>
 </file>
@@ -668,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="A1:F31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -689,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -698,24 +692,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -726,148 +717,148 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
@@ -875,13 +866,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -892,13 +883,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -909,13 +900,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -926,13 +917,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -943,30 +934,30 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -974,13 +965,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>25</v>
@@ -991,13 +982,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>26</v>
@@ -1008,13 +999,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1025,13 +1016,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1042,13 +1033,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>29</v>
@@ -1059,13 +1050,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>30</v>
@@ -1076,30 +1067,30 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -1110,13 +1101,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -1127,64 +1118,47 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>90</v>
       </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" t="s">
         <v>85</v>
-      </c>
-      <c r="E31" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FDEDEC09-03FD-4AE5-9A47-46A9C9C7EC23/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8E8B69E8-8E11-4B57-AB3A-85B9DFA22D4B/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9E128E-BCD5-8442-A952-B3ED552E3FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F81CB7-D433-964C-913F-E9C75D0D0E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="10240" windowWidth="13480" windowHeight="15020" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="17880" yWindow="10040" windowWidth="11440" windowHeight="14940" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,12 +273,6 @@
     <t>leaf_22t</t>
   </si>
   <si>
-    <t>li2013+yu2015</t>
-  </si>
-  <si>
-    <t>stelpflug2016+walley2016</t>
-  </si>
-  <si>
     <t>timeseries</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
     <t>mec02</t>
   </si>
   <si>
-    <t>stelpflug2016+walley2016+briggs</t>
-  </si>
-  <si>
     <t>B73_dev64</t>
   </si>
   <si>
@@ -310,6 +301,15 @@
   </si>
   <si>
     <t>n13a</t>
+  </si>
+  <si>
+    <t>nc03</t>
+  </si>
+  <si>
+    <t>mec03</t>
+  </si>
+  <si>
+    <t>B73_dev122</t>
   </si>
 </sst>
 </file>
@@ -662,17 +662,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -695,12 +695,12 @@
         <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>37</v>
@@ -726,7 +726,7 @@
         <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,7 +757,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,7 +788,7 @@
         <v>54</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,13 +1118,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>80</v>
@@ -1132,16 +1129,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
         <v>88</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,14 +1145,22 @@
       <c r="B30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
-        <v>82</v>
-      </c>
       <c r="E30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
-        <v>85</v>
+      <c r="F31" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8E8B69E8-8E11-4B57-AB3A-85B9DFA22D4B/login.msi.umn.edu/nfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/695BC363-E899-4269-A619-123CB0FC16E6/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F81CB7-D433-964C-913F-E9C75D0D0E4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF706EBE-92CD-7F4F-8C26-03BFE0078F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="10040" windowWidth="11440" windowHeight="14940" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="960" yWindow="10920" windowWidth="11440" windowHeight="16120" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
   <si>
     <t>nid</t>
   </si>
@@ -45,39 +45,21 @@
     <t>hirsch2014</t>
   </si>
   <si>
-    <t>seedling_503</t>
-  </si>
-  <si>
     <t>leiboff2015</t>
   </si>
   <si>
-    <t>SAM_380</t>
-  </si>
-  <si>
     <t>jin2016</t>
   </si>
   <si>
-    <t>kernel_368</t>
-  </si>
-  <si>
     <t>stelpflug2016</t>
   </si>
   <si>
-    <t>B73_18</t>
-  </si>
-  <si>
     <t>walley2016</t>
   </si>
   <si>
-    <t>B73_23</t>
-  </si>
-  <si>
     <t>lin2017</t>
   </si>
   <si>
-    <t>5_tissues</t>
-  </si>
-  <si>
     <t>ear</t>
   </si>
   <si>
@@ -96,9 +78,6 @@
     <t>kremling2018</t>
   </si>
   <si>
-    <t>7_tissues</t>
-  </si>
-  <si>
     <t>GRoot</t>
   </si>
   <si>
@@ -129,9 +108,6 @@
     <t>Mo17</t>
   </si>
   <si>
-    <t>B73xMo17</t>
-  </si>
-  <si>
     <t>n14a</t>
   </si>
   <si>
@@ -174,12 +150,6 @@
     <t>liu2013</t>
   </si>
   <si>
-    <t>leaf_13t</t>
-  </si>
-  <si>
-    <t>endsperm_7t</t>
-  </si>
-  <si>
     <t>n15b</t>
   </si>
   <si>
@@ -189,9 +159,6 @@
     <t>yu2015</t>
   </si>
   <si>
-    <t>leaf_9t</t>
-  </si>
-  <si>
     <t>n16b</t>
   </si>
   <si>
@@ -276,9 +243,6 @@
     <t>timeseries</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>nc01</t>
   </si>
   <si>
@@ -309,7 +273,70 @@
     <t>mec03</t>
   </si>
   <si>
-    <t>B73_dev122</t>
+    <t>n18d</t>
+  </si>
+  <si>
+    <t>me18d</t>
+  </si>
+  <si>
+    <t>shaefer2018</t>
+  </si>
+  <si>
+    <t>n13c</t>
+  </si>
+  <si>
+    <t>me13c</t>
+  </si>
+  <si>
+    <t>eitchen2013</t>
+  </si>
+  <si>
+    <t>net_type</t>
+  </si>
+  <si>
+    <t>sample_size</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>diverse_inbreds</t>
+  </si>
+  <si>
+    <t>seedling</t>
+  </si>
+  <si>
+    <t>endsperm</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>B73_dev200</t>
+  </si>
+  <si>
+    <t>5*27</t>
+  </si>
+  <si>
+    <t>tissue*genotype</t>
+  </si>
+  <si>
+    <t>7*306</t>
+  </si>
+  <si>
+    <t>root_GCN</t>
+  </si>
+  <si>
+    <t>BxM</t>
   </si>
 </sst>
 </file>
@@ -662,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,17 +700,18 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -692,18 +720,21 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="G1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -711,456 +742,673 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31">
         <v>64</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33">
         <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/695BC363-E899-4269-A619-123CB0FC16E6/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/D16B8888-AFF5-49B2-9201-F9CF24F58C65/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/maize.grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF706EBE-92CD-7F4F-8C26-03BFE0078F6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BD80A6-0FC4-FE46-920F-6C8D9701F9A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="10920" windowWidth="11440" windowHeight="16120" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="29460" yWindow="6640" windowWidth="12380" windowHeight="17720" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="118">
   <si>
     <t>nid</t>
   </si>
@@ -39,9 +39,6 @@
     <t>li2013</t>
   </si>
   <si>
-    <t>SAM1</t>
-  </si>
-  <si>
     <t>hirsch2014</t>
   </si>
   <si>
@@ -297,18 +294,12 @@
     <t>sample_size</t>
   </si>
   <si>
-    <t>ibm</t>
-  </si>
-  <si>
     <t>genotype</t>
   </si>
   <si>
     <t>leaf</t>
   </si>
   <si>
-    <t>diverse_inbreds</t>
-  </si>
-  <si>
     <t>seedling</t>
   </si>
   <si>
@@ -337,6 +328,57 @@
   </si>
   <si>
     <t>BxM</t>
+  </si>
+  <si>
+    <t>seedling_leaf3</t>
+  </si>
+  <si>
+    <t>ril</t>
+  </si>
+  <si>
+    <t>me99a</t>
+  </si>
+  <si>
+    <t>inbred</t>
+  </si>
+  <si>
+    <t>n99a_1</t>
+  </si>
+  <si>
+    <t>n99a_2</t>
+  </si>
+  <si>
+    <t>hybrid</t>
+  </si>
+  <si>
+    <t>kaeppler2018</t>
+  </si>
+  <si>
+    <t>np16_1</t>
+  </si>
+  <si>
+    <t>mRNA</t>
+  </si>
+  <si>
+    <t>np18_1</t>
+  </si>
+  <si>
+    <t>huang2018</t>
+  </si>
+  <si>
+    <t>seed</t>
+  </si>
+  <si>
+    <t>np18_2</t>
+  </si>
+  <si>
+    <t>np18_3</t>
+  </si>
+  <si>
+    <t>np18_4</t>
+  </si>
+  <si>
+    <t>liftover</t>
   </si>
 </sst>
 </file>
@@ -689,19 +731,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -711,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -720,30 +763,30 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>88</v>
-      </c>
-      <c r="G1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>108</v>
@@ -751,19 +794,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -771,19 +814,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>86</v>
       </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4">
         <v>62</v>
@@ -791,19 +834,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5">
         <v>503</v>
@@ -811,19 +854,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6">
         <v>7</v>
@@ -831,19 +874,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7">
         <v>380</v>
@@ -851,36 +894,39 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9">
         <v>368</v>
@@ -888,19 +934,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10">
         <v>76</v>
@@ -908,19 +954,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11">
         <v>23</v>
@@ -928,19 +974,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12">
         <v>133</v>
@@ -948,22 +994,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G13">
         <v>27</v>
@@ -971,22 +1017,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <v>27</v>
@@ -994,22 +1040,22 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -1017,22 +1063,22 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G16">
         <v>27</v>
@@ -1040,22 +1086,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G17">
         <v>27</v>
@@ -1063,19 +1109,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18">
         <v>1781</v>
@@ -1083,22 +1129,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G19">
         <v>306</v>
@@ -1106,22 +1152,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G20">
         <v>306</v>
@@ -1129,22 +1175,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21">
         <v>306</v>
@@ -1152,22 +1198,22 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G22">
         <v>306</v>
@@ -1175,22 +1221,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G23">
         <v>306</v>
@@ -1198,22 +1244,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <v>306</v>
@@ -1221,22 +1267,22 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G25">
         <v>306</v>
@@ -1244,22 +1290,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>83</v>
       </c>
-      <c r="C26" t="s">
-        <v>84</v>
-      </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G26">
         <v>46</v>
@@ -1267,68 +1313,68 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G28">
-        <v>23</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
         <v>24</v>
       </c>
-      <c r="D29" t="s">
-        <v>103</v>
-      </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G29">
         <v>23</v>
@@ -1336,78 +1382,227 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>23</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G30">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31">
-        <v>64</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="G32">
-        <v>200</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>90</v>
+      </c>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" t="s">
+        <v>94</v>
+      </c>
+      <c r="G39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" t="s">
         <v>70</v>
       </c>
-      <c r="F33" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33">
+      <c r="G40">
         <v>22</v>
       </c>
     </row>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/497CCFA2-FDD4-4C93-9BE0-A204737F746F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/7B7C0D89-ED38-4021-B3EE-E4850F4C0AA1/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35104332-E524-FD46-AED9-8B65D4DC25CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEC668-EADC-6F41-AC3A-29F4FFB73841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="1820" windowWidth="10260" windowHeight="21140" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="3260" yWindow="460" windowWidth="10260" windowHeight="20540" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
   <si>
     <t>nid</t>
   </si>
@@ -201,12 +201,6 @@
     <t>n99b_3</t>
   </si>
   <si>
-    <t>leaf_22t</t>
-  </si>
-  <si>
-    <t>timeseries</t>
-  </si>
-  <si>
     <t>nc01</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
     <t>mec02</t>
   </si>
   <si>
-    <t>nt01</t>
-  </si>
-  <si>
-    <t>met01</t>
-  </si>
-  <si>
     <t>n13a</t>
   </si>
   <si>
@@ -415,6 +403,12 @@
   </si>
   <si>
     <t>n99c_5</t>
+  </si>
+  <si>
+    <t>nc04</t>
+  </si>
+  <si>
+    <t>mec04</t>
   </si>
 </sst>
 </file>
@@ -767,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,15 +792,15 @@
         <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
@@ -818,27 +812,27 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>62</v>
@@ -855,10 +849,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>503</v>
@@ -878,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F5">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,10 +889,10 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>368</v>
@@ -918,7 +912,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F7">
         <v>93</v>
@@ -938,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>23</v>
@@ -955,10 +949,10 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F9">
         <v>133</v>
@@ -972,7 +966,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>26</v>
@@ -986,7 +980,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11">
         <v>27</v>
@@ -1000,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>27</v>
@@ -1014,7 +1008,7 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13">
         <v>26</v>
@@ -1028,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F14">
         <v>27</v>
@@ -1045,10 +1039,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F15">
         <v>1781</v>
@@ -1062,7 +1056,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F16">
         <v>274</v>
@@ -1076,7 +1070,7 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F17">
         <v>280</v>
@@ -1090,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>231</v>
@@ -1104,7 +1098,7 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>264</v>
@@ -1118,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>266</v>
@@ -1132,7 +1126,7 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>204</v>
@@ -1146,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F22">
         <v>262</v>
@@ -1154,19 +1148,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F23">
         <v>48</v>
@@ -1174,33 +1168,33 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F24">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F25">
         <v>89</v>
@@ -1208,13 +1202,13 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26">
         <v>43</v>
@@ -1222,13 +1216,13 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27">
         <v>50</v>
@@ -1236,13 +1230,13 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F28">
         <v>49</v>
@@ -1250,13 +1244,13 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F29">
         <v>216</v>
@@ -1264,13 +1258,13 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F30">
         <v>166</v>
@@ -1278,13 +1272,13 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F31">
         <v>50</v>
@@ -1292,7 +1286,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
@@ -1301,10 +1295,10 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F32">
         <v>69</v>
@@ -1318,7 +1312,7 @@
         <v>23</v>
       </c>
       <c r="E33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F33">
         <v>23</v>
@@ -1332,7 +1326,7 @@
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F34">
         <v>23</v>
@@ -1343,10 +1337,10 @@
         <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F35">
         <v>23</v>
@@ -1354,19 +1348,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F36">
         <v>465</v>
@@ -1374,13 +1368,13 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37">
         <v>121</v>
@@ -1388,13 +1382,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F38">
         <v>77</v>
@@ -1402,13 +1396,13 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F39">
         <v>84</v>
@@ -1416,13 +1410,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F40">
         <v>84</v>
@@ -1430,13 +1424,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F41">
         <v>84</v>
@@ -1444,19 +1438,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F42">
         <v>40</v>
@@ -1464,19 +1458,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F43">
         <v>61</v>
@@ -1484,19 +1478,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F44">
         <v>139</v>
@@ -1504,19 +1498,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F45">
         <v>50</v>
@@ -1524,121 +1518,101 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>89</v>
+      </c>
+      <c r="B46" t="s">
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F46">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F47">
-        <v>23</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F48">
-        <v>394</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F49">
-        <v>176</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F50">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" t="s">
-        <v>101</v>
-      </c>
-      <c r="F51">
         <v>159</v>
       </c>
     </row>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/7B7C0D89-ED38-4021-B3EE-E4850F4C0AA1/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/845E5F89-CAB6-4927-8E9C-B1B4F637AD86/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEC668-EADC-6F41-AC3A-29F4FFB73841}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD0309-AAB1-C84B-8DFF-593573C345C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="460" windowWidth="10260" windowHeight="20540" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -765,7 +765,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1301,7 +1301,7 @@
         <v>79</v>
       </c>
       <c r="F32">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>79</v>
       </c>
       <c r="F36">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/845E5F89-CAB6-4927-8E9C-B1B4F637AD86/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2B5796C9-D166-48E5-91EB-C638280DD64F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECD0309-AAB1-C84B-8DFF-593573C345C1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCF10A-7A60-794A-9881-A417AEA7597C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="460" windowWidth="10260" windowHeight="20540" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="17660" yWindow="4820" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
   <si>
     <t>nid</t>
   </si>
@@ -345,9 +345,6 @@
     <t>n99b</t>
   </si>
   <si>
-    <t>3*23</t>
-  </si>
-  <si>
     <t>combined</t>
   </si>
   <si>
@@ -366,18 +363,6 @@
     <t>embryo_endpsperm</t>
   </si>
   <si>
-    <t>n99a_6</t>
-  </si>
-  <si>
-    <t>n99a_7</t>
-  </si>
-  <si>
-    <t>seedling inbred</t>
-  </si>
-  <si>
-    <t>seedling hybrid</t>
-  </si>
-  <si>
     <t>n99c</t>
   </si>
   <si>
@@ -409,19 +394,64 @@
   </si>
   <si>
     <t>mec04</t>
+  </si>
+  <si>
+    <t>3*15</t>
+  </si>
+  <si>
+    <t>23*3</t>
+  </si>
+  <si>
+    <t>subid</t>
+  </si>
+  <si>
+    <t>B73xMo17</t>
+  </si>
+  <si>
+    <t>Endosperm</t>
+  </si>
+  <si>
+    <t>Internode</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Seedling</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n19a</t>
+  </si>
+  <si>
+    <t>me19a</t>
+  </si>
+  <si>
+    <t>mazaheri2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -444,9 +474,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,11 +792,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,11 +805,12 @@
     <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,13 +824,16 @@
         <v>53</v>
       </c>
       <c r="E1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -812,13 +847,16 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" t="s">
         <v>84</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -832,13 +870,16 @@
         <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -852,13 +893,16 @@
         <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4">
+        <v>132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4">
         <v>503</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -872,13 +916,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5">
+        <v>132</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5">
         <v>383</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -892,13 +939,16 @@
         <v>76</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F6">
+        <v>132</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6">
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -912,13 +962,16 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
         <v>77</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -932,13 +985,16 @@
         <v>23</v>
       </c>
       <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
         <v>77</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -952,83 +1008,131 @@
         <v>78</v>
       </c>
       <c r="E9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" t="s">
         <v>79</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>40</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>41</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>43</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1042,111 +1146,177 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" t="s">
         <v>79</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1781</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
       <c r="D16" t="s">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>48</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>49</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
       <c r="D20" t="s">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20">
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>50</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>51</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22">
         <v>262</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -1160,133 +1330,202 @@
         <v>81</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>98</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>99</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" t="s">
         <v>79</v>
       </c>
-      <c r="F24">
+      <c r="G25">
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
         <v>100</v>
       </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25">
+      <c r="E26" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="B27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26">
+      <c r="E27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>102</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>74</v>
       </c>
-      <c r="E27" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27">
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>103</v>
       </c>
-      <c r="D28" t="s">
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28">
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>104</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
         <v>75</v>
       </c>
-      <c r="E29" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29">
+      <c r="E30" t="s">
+        <v>75</v>
+      </c>
+      <c r="F30" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30">
         <v>216</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>54</v>
@@ -1295,328 +1534,411 @@
         <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>24</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" t="s">
         <v>79</v>
       </c>
-      <c r="F32">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="G35">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" t="s">
+        <v>127</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37">
         <v>77</v>
       </c>
-      <c r="F33">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-      <c r="E34" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
       </c>
-      <c r="F34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>79</v>
-      </c>
-      <c r="F36">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>121</v>
-      </c>
-      <c r="D37" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D38" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
         <v>77</v>
       </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" t="s">
         <v>77</v>
       </c>
-      <c r="F43">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>127</v>
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+      <c r="F45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" t="s">
         <v>97</v>
       </c>
-      <c r="F46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" t="s">
         <v>97</v>
       </c>
-      <c r="F47">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" t="s">
         <v>97</v>
       </c>
-      <c r="F48">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" t="s">
         <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
       </c>
-      <c r="F49">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" t="s">
-        <v>93</v>
-      </c>
-      <c r="E50" t="s">
-        <v>97</v>
-      </c>
-      <c r="F50">
+      <c r="G49">
         <v>159</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2B5796C9-D166-48E5-91EB-C638280DD64F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/724BB623-7E25-4211-A018-A868FA80CF06/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FCF10A-7A60-794A-9881-A417AEA7597C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF9804-AB98-9243-8D67-652E5815F3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17660" yWindow="4820" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="2100" yWindow="3200" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="140">
   <si>
     <t>nid</t>
   </si>
@@ -42,9 +43,6 @@
     <t>leiboff2015</t>
   </si>
   <si>
-    <t>jin2016</t>
-  </si>
-  <si>
     <t>stelpflug2016</t>
   </si>
   <si>
@@ -93,9 +91,6 @@
     <t>LMAN</t>
   </si>
   <si>
-    <t>briggs</t>
-  </si>
-  <si>
     <t>B73</t>
   </si>
   <si>
@@ -123,9 +118,6 @@
     <t>n16a</t>
   </si>
   <si>
-    <t>me16a</t>
-  </si>
-  <si>
     <t>n16b</t>
   </si>
   <si>
@@ -433,6 +425,27 @@
   </si>
   <si>
     <t>mazaheri2019</t>
+  </si>
+  <si>
+    <t>zhou2018</t>
+  </si>
+  <si>
+    <t>fu2013</t>
+  </si>
+  <si>
+    <t>me13e</t>
+  </si>
+  <si>
+    <t>n18c</t>
+  </si>
+  <si>
+    <t>me18c</t>
+  </si>
+  <si>
+    <t>wang2018</t>
+  </si>
+  <si>
+    <t>seedling_v2</t>
   </si>
 </sst>
 </file>
@@ -454,12 +467,36 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -474,10 +511,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,226 +860,226 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="9">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="7">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -1042,22 +1087,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>27</v>
@@ -1065,22 +1110,22 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>27</v>
@@ -1088,22 +1133,22 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -1111,68 +1156,68 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="2">
         <v>1781</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>15</v>
-      </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>274</v>
@@ -1180,22 +1225,22 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17">
         <v>280</v>
@@ -1203,22 +1248,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18">
         <v>231</v>
@@ -1226,22 +1271,22 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>264</v>
@@ -1249,22 +1294,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>266</v>
@@ -1272,22 +1317,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>204</v>
@@ -1295,114 +1340,114 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22">
         <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" t="s">
-        <v>73</v>
-      </c>
-      <c r="G24">
+      <c r="D24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
         <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="1" t="s">
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25">
+      <c r="D25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2">
         <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26">
         <v>89</v>
@@ -1410,22 +1455,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G27">
         <v>43</v>
@@ -1433,22 +1478,22 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28">
         <v>50</v>
@@ -1456,22 +1501,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
         <v>85</v>
       </c>
-      <c r="C29" t="s">
-        <v>88</v>
-      </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29">
         <v>49</v>
@@ -1479,68 +1524,68 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
       <c r="D30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30">
         <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31">
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G32">
         <v>23</v>
@@ -1548,22 +1593,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G33">
         <v>23</v>
@@ -1571,68 +1616,68 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G34">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" t="s">
-        <v>114</v>
-      </c>
-      <c r="D35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" t="s">
-        <v>132</v>
-      </c>
-      <c r="F35" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35">
+      <c r="E35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="2">
         <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G36">
         <v>121</v>
@@ -1640,22 +1685,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G37">
         <v>77</v>
@@ -1663,22 +1708,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G38">
         <v>84</v>
@@ -1686,22 +1731,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F39" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G39">
         <v>84</v>
@@ -1709,137 +1754,137 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="A41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="C42" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" t="s">
-        <v>132</v>
-      </c>
-      <c r="F42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G42">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G43">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44">
+      <c r="D44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G45">
         <v>23</v>
@@ -1847,22 +1892,22 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G46">
         <v>394</v>
@@ -1870,22 +1915,22 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" t="s">
         <v>94</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F47" t="s">
-        <v>97</v>
       </c>
       <c r="G47">
         <v>176</v>
@@ -1893,22 +1938,22 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G48">
         <v>406</v>
@@ -1916,22 +1961,22 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G49">
         <v>159</v>
@@ -1941,4 +1986,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8D9D0-5B74-674B-A2BB-787E5B58BA86}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="9">
+        <v>617</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/724BB623-7E25-4211-A018-A868FA80CF06/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FD7D3F4E-31E9-461D-9291-BE0B4D2227CD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF9804-AB98-9243-8D67-652E5815F3C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FE985-29E8-2C4B-BF3D-DB7D2458EDB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="3200" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -361,9 +361,6 @@
     <t>me99c</t>
   </si>
   <si>
-    <t>biomap</t>
-  </si>
-  <si>
     <t>5*121</t>
   </si>
   <si>
@@ -446,6 +443,9 @@
   </si>
   <si>
     <t>seedling_v2</t>
+  </si>
+  <si>
+    <t>li2019</t>
   </si>
 </sst>
 </file>
@@ -837,11 +837,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -869,7 +869,7 @@
         <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" t="s">
         <v>68</v>
@@ -892,7 +892,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>81</v>
@@ -915,7 +915,7 @@
         <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>70</v>
@@ -938,7 +938,7 @@
         <v>72</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>70</v>
@@ -961,7 +961,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>70</v>
@@ -975,16 +975,16 @@
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>70</v>
@@ -1007,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>74</v>
@@ -1030,7 +1030,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>74</v>
@@ -1053,7 +1053,7 @@
         <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>76</v>
@@ -1191,7 +1191,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>76</v>
@@ -1362,100 +1362,100 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="4">
-        <v>48</v>
+      <c r="A23" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="9">
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E25" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4">
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26">
-        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>82</v>
@@ -1464,21 +1464,21 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
       </c>
       <c r="G27">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -1487,21 +1487,21 @@
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
         <v>70</v>
       </c>
       <c r="G28">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>82</v>
@@ -1510,21 +1510,21 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
         <v>70</v>
       </c>
       <c r="G29">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>82</v>
@@ -1533,79 +1533,79 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30">
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="C32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>133</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32">
-        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
@@ -1616,19 +1616,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
         <v>74</v>
@@ -1638,112 +1638,112 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G36" s="2">
         <v>450</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
       </c>
       <c r="G37">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="E38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
       </c>
       <c r="G38">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F39" t="s">
         <v>70</v>
@@ -1754,19 +1754,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
         <v>70</v>
@@ -1776,209 +1776,232 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" s="7">
-        <v>40</v>
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="7">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>74</v>
       </c>
       <c r="G43" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G44" s="7">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C45" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E45" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G45" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G45">
-        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F46" t="s">
         <v>94</v>
       </c>
       <c r="G46">
-        <v>394</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F47" t="s">
         <v>94</v>
       </c>
       <c r="G47">
-        <v>176</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
         <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" t="s">
         <v>94</v>
       </c>
       <c r="G48">
-        <v>406</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
         <v>89</v>
       </c>
       <c r="D49" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
         <v>94</v>
       </c>
       <c r="G49">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50">
         <v>159</v>
       </c>
     </row>
@@ -1990,38 +2013,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8D9D0-5B74-674B-A2BB-787E5B58BA86}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="9">
-        <v>617</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/FD7D3F4E-31E9-461D-9291-BE0B4D2227CD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/71BBC763-1D1B-4B7E-B2C5-CFD24F5C0F5D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FE985-29E8-2C4B-BF3D-DB7D2458EDB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85518D58-08CA-F14E-95D8-83DBE178260F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="3200" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/71BBC763-1D1B-4B7E-B2C5-CFD24F5C0F5D/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/960AEBD2-20CC-4852-BA1C-0A84FE729309/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85518D58-08CA-F14E-95D8-83DBE178260F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735AE7A-C311-DB48-9F96-6CE358053608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3200" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="14440" yWindow="5100" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
   <si>
     <t>nid</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>li2019</t>
+  </si>
+  <si>
+    <t>me18e</t>
+  </si>
+  <si>
+    <t>n18e_1</t>
+  </si>
+  <si>
+    <t>n18e_2</t>
+  </si>
+  <si>
+    <t>n18e_3</t>
+  </si>
+  <si>
+    <t>n18e_4</t>
   </si>
 </sst>
 </file>
@@ -837,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1178,31 +1193,31 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1781</v>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>49</v>
@@ -1211,21 +1226,21 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>70</v>
       </c>
       <c r="G16">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>49</v>
@@ -1234,21 +1249,21 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
         <v>70</v>
       </c>
       <c r="G17">
-        <v>280</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>49</v>
@@ -1257,21 +1272,21 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>70</v>
       </c>
       <c r="G18">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>49</v>
@@ -1280,21 +1295,21 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
         <v>70</v>
       </c>
       <c r="G19">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -1303,21 +1318,21 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
       </c>
       <c r="G20">
-        <v>266</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1326,76 +1341,76 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>70</v>
       </c>
       <c r="G21">
-        <v>204</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="9">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="4">
         <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="9">
-        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>128</v>
@@ -1404,58 +1419,58 @@
         <v>70</v>
       </c>
       <c r="G24" s="4">
-        <v>48</v>
+        <v>453</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="4">
-        <v>453</v>
+      <c r="A25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2">
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>85</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G26" s="2">
-        <v>447</v>
+      <c r="D26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>82</v>
@@ -1464,21 +1479,21 @@
         <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
         <v>70</v>
       </c>
       <c r="G27">
-        <v>89</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>82</v>
@@ -1487,21 +1502,21 @@
         <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s">
         <v>70</v>
       </c>
       <c r="G28">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>82</v>
@@ -1510,21 +1525,21 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
         <v>70</v>
       </c>
       <c r="G29">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>82</v>
@@ -1533,67 +1548,67 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
       </c>
       <c r="G30">
-        <v>49</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F31" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31">
-        <v>216</v>
+      <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="2">
-        <v>73</v>
+      <c r="D32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>51</v>
@@ -1602,10 +1617,10 @@
         <v>132</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
         <v>74</v>
@@ -1616,7 +1631,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>51</v>
@@ -1625,10 +1640,10 @@
         <v>132</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
         <v>74</v>
@@ -1638,54 +1653,54 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" t="s">
-        <v>74</v>
-      </c>
-      <c r="G35">
-        <v>23</v>
+      <c r="A35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="2">
+        <v>450</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>139</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" s="2">
-        <v>450</v>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>123</v>
+      </c>
+      <c r="F36" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36">
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>110</v>
@@ -1694,21 +1709,21 @@
         <v>139</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F37" t="s">
         <v>70</v>
       </c>
       <c r="G37">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>110</v>
@@ -1717,21 +1732,21 @@
         <v>139</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F38" t="s">
         <v>70</v>
       </c>
       <c r="G38">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>110</v>
@@ -1740,10 +1755,10 @@
         <v>139</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F39" t="s">
         <v>70</v>
@@ -1754,7 +1769,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>110</v>
@@ -1763,10 +1778,10 @@
         <v>139</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F40" t="s">
         <v>70</v>
@@ -1776,40 +1791,40 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" t="s">
-        <v>72</v>
-      </c>
-      <c r="E41" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41">
-        <v>84</v>
+      <c r="A41" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" s="7">
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>128</v>
@@ -1818,21 +1833,21 @@
         <v>74</v>
       </c>
       <c r="G42" s="7">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>128</v>
@@ -1841,168 +1856,30 @@
         <v>74</v>
       </c>
       <c r="G43" s="7">
-        <v>61</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G44" s="7">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A44" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G44" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G46">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
-      </c>
-      <c r="G47">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
-      </c>
-      <c r="G49">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D50" t="s">
-        <v>90</v>
-      </c>
-      <c r="E50" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" t="s">
-        <v>94</v>
-      </c>
-      <c r="G50">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2013,14 +1890,245 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8D9D0-5B74-674B-A2BB-787E5B58BA86}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="4">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/960AEBD2-20CC-4852-BA1C-0A84FE729309/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F38F02C7-6DDD-4C41-95FB-71F7FF174DE9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3735AE7A-C311-DB48-9F96-6CE358053608}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D3F6F-6945-864D-AE73-2FB7FD8C65CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14440" yWindow="5100" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -852,11 +852,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,145 +1401,145 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="4">
+      <c r="E28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="4">
         <v>453</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G29" s="2">
         <v>447</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" t="s">
-        <v>71</v>
-      </c>
-      <c r="F28" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29">
-        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>82</v>
@@ -1548,122 +1548,122 @@
         <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
         <v>70</v>
       </c>
       <c r="G30">
-        <v>216</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="2">
-        <v>73</v>
+      <c r="A31" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G33">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G34">
-        <v>23</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>128</v>
@@ -1672,104 +1672,104 @@
         <v>76</v>
       </c>
       <c r="G35" s="2">
-        <v>450</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G36">
-        <v>121</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E37" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G37">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D38" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39">
-        <v>84</v>
+      <c r="D39" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G39" s="2">
+        <v>450</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>110</v>
@@ -1778,107 +1778,199 @@
         <v>139</v>
       </c>
       <c r="D40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>139</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" t="s">
         <v>72</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>127</v>
       </c>
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40">
+      <c r="F44" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G45" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C46" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E42" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="7" t="s">
+      <c r="E46" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G46" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="7" t="s">
+      <c r="E47" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G47" s="7">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G48" s="4">
         <v>50</v>
       </c>
     </row>
@@ -1890,7 +1982,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8D9D0-5B74-674B-A2BB-787E5B58BA86}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD10"/>
@@ -2036,98 +2128,6 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="4">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="4">
-        <v>159</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/F38F02C7-6DDD-4C41-95FB-71F7FF174DE9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2FC59546-238C-4ADA-8B66-8CA3B540024E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89D3F6F-6945-864D-AE73-2FB7FD8C65CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE019987-72B2-7E4F-BF4C-ABEA6D94FF43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="5100" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="2320" yWindow="3820" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -856,7 +856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD27"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/2FC59546-238C-4ADA-8B66-8CA3B540024E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8C5B0D0B-2DD0-4A03-A2A3-DF28EBB15A20/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE019987-72B2-7E4F-BF4C-ABEA6D94FF43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C143E-0557-7D44-A09B-07896EDF9D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="3820" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="15440" yWindow="6320" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
   <si>
     <t>nid</t>
   </si>
@@ -103,39 +103,21 @@
     <t>mid</t>
   </si>
   <si>
-    <t>me13a</t>
-  </si>
-  <si>
-    <t>me14a</t>
-  </si>
-  <si>
     <t>n15a</t>
   </si>
   <si>
-    <t>me15a</t>
-  </si>
-  <si>
     <t>n16a</t>
   </si>
   <si>
     <t>n16b</t>
   </si>
   <si>
-    <t>me16b</t>
-  </si>
-  <si>
     <t>n16c</t>
   </si>
   <si>
-    <t>me16c</t>
-  </si>
-  <si>
     <t>n17a</t>
   </si>
   <si>
-    <t>me17a</t>
-  </si>
-  <si>
     <t>n17a_1</t>
   </si>
   <si>
@@ -181,18 +163,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>me99b</t>
-  </si>
-  <si>
-    <t>n99b_1</t>
-  </si>
-  <si>
-    <t>n99b_2</t>
-  </si>
-  <si>
-    <t>n99b_3</t>
-  </si>
-  <si>
     <t>nc01</t>
   </si>
   <si>
@@ -217,18 +187,12 @@
     <t>n18d</t>
   </si>
   <si>
-    <t>me18d</t>
-  </si>
-  <si>
     <t>shaefer2018</t>
   </si>
   <si>
     <t>n13c</t>
   </si>
   <si>
-    <t>me13c</t>
-  </si>
-  <si>
     <t>eitchen2013</t>
   </si>
   <si>
@@ -274,9 +238,6 @@
     <t>ril</t>
   </si>
   <si>
-    <t>me99a</t>
-  </si>
-  <si>
     <t>n99a_1</t>
   </si>
   <si>
@@ -334,9 +295,6 @@
     <t>n99a_5</t>
   </si>
   <si>
-    <t>n99b</t>
-  </si>
-  <si>
     <t>combined</t>
   </si>
   <si>
@@ -358,9 +316,6 @@
     <t>n99c</t>
   </si>
   <si>
-    <t>me99c</t>
-  </si>
-  <si>
     <t>5*121</t>
   </si>
   <si>
@@ -418,9 +373,6 @@
     <t>n19a</t>
   </si>
   <si>
-    <t>me19a</t>
-  </si>
-  <si>
     <t>mazaheri2019</t>
   </si>
   <si>
@@ -430,15 +382,9 @@
     <t>fu2013</t>
   </si>
   <si>
-    <t>me13e</t>
-  </si>
-  <si>
     <t>n18c</t>
   </si>
   <si>
-    <t>me18c</t>
-  </si>
-  <si>
     <t>wang2018</t>
   </si>
   <si>
@@ -448,9 +394,6 @@
     <t>li2019</t>
   </si>
   <si>
-    <t>me18e</t>
-  </si>
-  <si>
     <t>n18e_1</t>
   </si>
   <si>
@@ -461,6 +404,66 @@
   </si>
   <si>
     <t>n18e_4</t>
+  </si>
+  <si>
+    <t>rn13a</t>
+  </si>
+  <si>
+    <t>rn13c</t>
+  </si>
+  <si>
+    <t>rn14a</t>
+  </si>
+  <si>
+    <t>rn15a</t>
+  </si>
+  <si>
+    <t>rn13e</t>
+  </si>
+  <si>
+    <t>rn16b</t>
+  </si>
+  <si>
+    <t>rn16c</t>
+  </si>
+  <si>
+    <t>rn17a</t>
+  </si>
+  <si>
+    <t>rn18a</t>
+  </si>
+  <si>
+    <t>rn18c</t>
+  </si>
+  <si>
+    <t>rn18d</t>
+  </si>
+  <si>
+    <t>rn18e</t>
+  </si>
+  <si>
+    <t>rn19a</t>
+  </si>
+  <si>
+    <t>rn99a</t>
+  </si>
+  <si>
+    <t>rn99c</t>
+  </si>
+  <si>
+    <t>n18g</t>
+  </si>
+  <si>
+    <t>rn18g</t>
+  </si>
+  <si>
+    <t>n18g_1</t>
+  </si>
+  <si>
+    <t>n18g_2</t>
+  </si>
+  <si>
+    <t>n18g_3</t>
   </si>
 </sst>
 </file>
@@ -526,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -538,6 +541,7 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -852,11 +856,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:G48"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,24 +885,24 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -907,10 +911,10 @@
         <v>12</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G2" s="9">
         <v>107</v>
@@ -918,22 +922,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G3" s="4">
         <v>62</v>
@@ -944,19 +948,19 @@
         <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4">
         <v>503</v>
@@ -964,10 +968,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>4</v>
@@ -976,10 +980,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G5" s="4">
         <v>383</v>
@@ -987,22 +991,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G6" s="4">
         <v>368</v>
@@ -1010,10 +1014,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
@@ -1022,10 +1026,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G7" s="7">
         <v>93</v>
@@ -1033,10 +1037,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>6</v>
@@ -1045,10 +1049,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G8" s="7">
         <v>23</v>
@@ -1056,22 +1060,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G9" s="2">
         <v>133</v>
@@ -1079,10 +1083,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -1094,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <v>26</v>
@@ -1102,10 +1106,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -1117,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G11">
         <v>27</v>
@@ -1125,10 +1129,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -1140,7 +1144,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G12">
         <v>27</v>
@@ -1148,10 +1152,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1163,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -1171,10 +1175,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1186,536 +1190,536 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G14">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>274</v>
+      <c r="D15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1781</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G16">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G17">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G18">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G19">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G20">
-        <v>204</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22">
         <v>262</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="C23" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="9">
         <v>617</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="4">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>140</v>
+        <v>52</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4">
-        <v>394</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G25" s="4">
-        <v>176</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G26" s="4">
-        <v>406</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G27" s="4">
-        <v>159</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="4">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="4">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="D30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2">
         <v>447</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>83</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F31" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G31">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
         <v>85</v>
       </c>
-      <c r="D32" t="s">
-        <v>71</v>
-      </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="F32" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G32">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G33">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" t="s">
         <v>72</v>
       </c>
-      <c r="E34" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34">
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35">
         <v>216</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="2">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" t="s">
-        <v>74</v>
-      </c>
-      <c r="G36">
-        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="C37" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G37">
         <v>23</v>
@@ -1723,137 +1727,137 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>51</v>
+        <v>144</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G38">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>62</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="2">
         <v>450</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C41" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G41">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G42">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="s">
         <v>110</v>
       </c>
-      <c r="C43" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" t="s">
-        <v>126</v>
-      </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G43">
         <v>84</v>
@@ -1861,116 +1865,139 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G44">
         <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G45" s="7">
-        <v>40</v>
+      <c r="A45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45">
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G46" s="7">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="7">
         <v>61</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" s="7" t="s">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="7">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="7">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G48" s="4">
+      <c r="C49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="4">
         <v>50</v>
       </c>
     </row>
@@ -1985,29 +2012,29 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD10"/>
+      <selection activeCell="A6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G1">
         <v>23</v>
@@ -2015,22 +2042,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G2">
         <v>394</v>
@@ -2038,22 +2065,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G3">
         <v>176</v>
@@ -2061,22 +2088,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G4">
         <v>406</v>
@@ -2084,22 +2111,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G5">
         <v>159</v>
@@ -2107,22 +2134,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G6" s="2">
         <v>1781</v>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8C5B0D0B-2DD0-4A03-A2A3-DF28EBB15A20/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/BF7A3713-3113-40DE-B94F-27766A3A0226/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584C143E-0557-7D44-A09B-07896EDF9D9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C8E63C-7B3F-0948-9997-145B4EB0CE37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15440" yWindow="6320" windowWidth="10260" windowHeight="21180" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -470,19 +470,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292E"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -529,19 +523,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,7 +856,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,25 +894,25 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>107</v>
       </c>
     </row>
@@ -1013,48 +1009,48 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>23</v>
       </c>
     </row>
@@ -1381,25 +1377,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>617</v>
       </c>
     </row>
@@ -1433,7 +1429,7 @@
       <c r="B25" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1456,7 +1452,7 @@
       <c r="B26" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1479,7 +1475,7 @@
       <c r="B27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1502,7 +1498,7 @@
       <c r="B28" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1525,7 +1521,7 @@
       <c r="B29" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="11" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1548,7 +1544,7 @@
       <c r="B30" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1571,7 +1567,7 @@
       <c r="B31" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="13" t="s">
         <v>72</v>
       </c>
       <c r="D31" t="s">
@@ -1729,7 +1725,7 @@
       <c r="A38" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C38" t="s">
@@ -1910,71 +1906,71 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="6">
         <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F47" s="7" t="s">
+      <c r="E47" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F47" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="6">
         <v>139</v>
       </c>
     </row>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/84274A5A-A83F-4B2D-BFA9-2A6E4CF0924F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/18BB9294-EB44-4F0C-A023-8839DCD95717/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FA6318-497C-3F41-A302-A5588387817A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706FB9E-AB32-F44B-896F-9AF71F4E1127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="6840" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="23740" yWindow="6920" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="157">
   <si>
     <t>nid</t>
   </si>
@@ -244,235 +244,259 @@
     <t>n99a_5</t>
   </si>
   <si>
+    <t>seed dev</t>
+  </si>
+  <si>
+    <t>n99c</t>
+  </si>
+  <si>
+    <t>5*121</t>
+  </si>
+  <si>
+    <t>n99c_1</t>
+  </si>
+  <si>
+    <t>n99c_2</t>
+  </si>
+  <si>
+    <t>n99c_3</t>
+  </si>
+  <si>
+    <t>n99c_4</t>
+  </si>
+  <si>
+    <t>n99c_5</t>
+  </si>
+  <si>
+    <t>23*3</t>
+  </si>
+  <si>
+    <t>subid</t>
+  </si>
+  <si>
+    <t>B73xMo17</t>
+  </si>
+  <si>
+    <t>Endosperm</t>
+  </si>
+  <si>
+    <t>Internode</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n19a</t>
+  </si>
+  <si>
+    <t>mazaheri2019</t>
+  </si>
+  <si>
+    <t>zhou2018</t>
+  </si>
+  <si>
+    <t>fu2013</t>
+  </si>
+  <si>
+    <t>n18c</t>
+  </si>
+  <si>
+    <t>wang2018</t>
+  </si>
+  <si>
+    <t>li2019</t>
+  </si>
+  <si>
+    <t>n18e_1</t>
+  </si>
+  <si>
+    <t>n18e_2</t>
+  </si>
+  <si>
+    <t>n18e_3</t>
+  </si>
+  <si>
+    <t>n18e_4</t>
+  </si>
+  <si>
+    <t>rn13a</t>
+  </si>
+  <si>
+    <t>rn13c</t>
+  </si>
+  <si>
+    <t>rn14a</t>
+  </si>
+  <si>
+    <t>rn15a</t>
+  </si>
+  <si>
+    <t>rn13e</t>
+  </si>
+  <si>
+    <t>rn16b</t>
+  </si>
+  <si>
+    <t>rn16c</t>
+  </si>
+  <si>
+    <t>rn17a</t>
+  </si>
+  <si>
+    <t>rn18a</t>
+  </si>
+  <si>
+    <t>rn18c</t>
+  </si>
+  <si>
+    <t>rn18d</t>
+  </si>
+  <si>
+    <t>rn18e</t>
+  </si>
+  <si>
+    <t>rn19a</t>
+  </si>
+  <si>
+    <t>rn99a</t>
+  </si>
+  <si>
+    <t>rn99c</t>
+  </si>
+  <si>
+    <t>n18g</t>
+  </si>
+  <si>
+    <t>rn18g</t>
+  </si>
+  <si>
+    <t>n18g_1</t>
+  </si>
+  <si>
+    <t>n18g_2</t>
+  </si>
+  <si>
+    <t>n18g_3</t>
+  </si>
+  <si>
+    <t>rnc01</t>
+  </si>
+  <si>
+    <t>n19c</t>
+  </si>
+  <si>
+    <t>rn19c</t>
+  </si>
+  <si>
+    <t>yi2019</t>
+  </si>
+  <si>
+    <t>n15c</t>
+  </si>
+  <si>
+    <t>rn15c</t>
+  </si>
+  <si>
+    <t>baute2016</t>
+  </si>
+  <si>
+    <t>B73 x Mo17</t>
+  </si>
+  <si>
+    <t>B73 x H99</t>
+  </si>
+  <si>
+    <t>W22 x Teosinte</t>
+  </si>
+  <si>
+    <t>baute2015</t>
+  </si>
+  <si>
+    <t>rn15d</t>
+  </si>
+  <si>
+    <t>n15d</t>
+  </si>
+  <si>
+    <t>n18e</t>
+  </si>
+  <si>
+    <t>4*300</t>
+  </si>
+  <si>
+    <t>n13e</t>
+  </si>
+  <si>
+    <t>MAGIC</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>n99a_6</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>6*103</t>
+  </si>
+  <si>
+    <t>Shoot</t>
+  </si>
+  <si>
+    <t>7*237</t>
+  </si>
+  <si>
+    <t>nc02</t>
+  </si>
+  <si>
+    <t>rnc02</t>
+  </si>
+  <si>
+    <t>RIL combined</t>
+  </si>
+  <si>
+    <t>nc03</t>
+  </si>
+  <si>
+    <t>rnc03</t>
+  </si>
+  <si>
+    <t>genotype combined</t>
+  </si>
+  <si>
+    <t>nc04</t>
+  </si>
+  <si>
+    <t>rnc04</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>tissue atlas</t>
+  </si>
+  <si>
     <t>combined</t>
-  </si>
-  <si>
-    <t>seed dev</t>
-  </si>
-  <si>
-    <t>dev atlas</t>
-  </si>
-  <si>
-    <t>n99c</t>
-  </si>
-  <si>
-    <t>5*121</t>
-  </si>
-  <si>
-    <t>n99c_1</t>
-  </si>
-  <si>
-    <t>n99c_2</t>
-  </si>
-  <si>
-    <t>n99c_3</t>
-  </si>
-  <si>
-    <t>n99c_4</t>
-  </si>
-  <si>
-    <t>n99c_5</t>
-  </si>
-  <si>
-    <t>23*3</t>
-  </si>
-  <si>
-    <t>subid</t>
-  </si>
-  <si>
-    <t>B73xMo17</t>
-  </si>
-  <si>
-    <t>Endosperm</t>
-  </si>
-  <si>
-    <t>Internode</t>
-  </si>
-  <si>
-    <t>Leaf</t>
-  </si>
-  <si>
-    <t>Root</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>n19a</t>
-  </si>
-  <si>
-    <t>mazaheri2019</t>
-  </si>
-  <si>
-    <t>zhou2018</t>
-  </si>
-  <si>
-    <t>fu2013</t>
-  </si>
-  <si>
-    <t>n18c</t>
-  </si>
-  <si>
-    <t>wang2018</t>
-  </si>
-  <si>
-    <t>li2019</t>
-  </si>
-  <si>
-    <t>n18e_1</t>
-  </si>
-  <si>
-    <t>n18e_2</t>
-  </si>
-  <si>
-    <t>n18e_3</t>
-  </si>
-  <si>
-    <t>n18e_4</t>
-  </si>
-  <si>
-    <t>rn13a</t>
-  </si>
-  <si>
-    <t>rn13c</t>
-  </si>
-  <si>
-    <t>rn14a</t>
-  </si>
-  <si>
-    <t>rn15a</t>
-  </si>
-  <si>
-    <t>rn13e</t>
-  </si>
-  <si>
-    <t>rn16b</t>
-  </si>
-  <si>
-    <t>rn16c</t>
-  </si>
-  <si>
-    <t>rn17a</t>
-  </si>
-  <si>
-    <t>rn18a</t>
-  </si>
-  <si>
-    <t>rn18c</t>
-  </si>
-  <si>
-    <t>rn18d</t>
-  </si>
-  <si>
-    <t>rn18e</t>
-  </si>
-  <si>
-    <t>rn19a</t>
-  </si>
-  <si>
-    <t>rn99a</t>
-  </si>
-  <si>
-    <t>rn99c</t>
-  </si>
-  <si>
-    <t>n18g</t>
-  </si>
-  <si>
-    <t>rn18g</t>
-  </si>
-  <si>
-    <t>n18g_1</t>
-  </si>
-  <si>
-    <t>n18g_2</t>
-  </si>
-  <si>
-    <t>n18g_3</t>
-  </si>
-  <si>
-    <t>rnc01</t>
-  </si>
-  <si>
-    <t>n19c</t>
-  </si>
-  <si>
-    <t>rn19c</t>
-  </si>
-  <si>
-    <t>yi2019</t>
-  </si>
-  <si>
-    <t>n15c</t>
-  </si>
-  <si>
-    <t>rn15c</t>
-  </si>
-  <si>
-    <t>baute2016</t>
-  </si>
-  <si>
-    <t>B73 x Mo17</t>
-  </si>
-  <si>
-    <t>B73 x H99</t>
-  </si>
-  <si>
-    <t>W22 x Teosinte</t>
-  </si>
-  <si>
-    <t>baute2015</t>
-  </si>
-  <si>
-    <t>rn15d</t>
-  </si>
-  <si>
-    <t>n15d</t>
-  </si>
-  <si>
-    <t>n18e</t>
-  </si>
-  <si>
-    <t>4*300</t>
-  </si>
-  <si>
-    <t>n13e</t>
-  </si>
-  <si>
-    <t>MAGIC</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>n99a_6</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>6*103</t>
-  </si>
-  <si>
-    <t>Shoot</t>
-  </si>
-  <si>
-    <t>7*237</t>
   </si>
 </sst>
 </file>
@@ -488,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,6 +543,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -532,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -546,6 +576,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,7 +896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -892,7 +924,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
         <v>49</v>
@@ -906,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -915,7 +947,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>55</v>
@@ -929,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -938,7 +970,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
@@ -949,19 +981,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>55</v>
@@ -971,946 +1003,946 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="13">
         <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="8">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="8">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="8">
-        <v>617</v>
+      <c r="C9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="4">
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="4">
         <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>93</v>
+        <v>111</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G11" s="4">
-        <v>368</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="4">
-        <v>503</v>
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="2">
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="4">
-        <v>383</v>
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="4">
-        <v>48</v>
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="4">
-        <v>453</v>
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="2">
-        <v>133</v>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>51</v>
       </c>
       <c r="G17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18">
-        <v>27</v>
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1657</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
         <v>51</v>
       </c>
       <c r="G19">
-        <v>27</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
         <v>51</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1657</v>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22">
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
         <v>51</v>
       </c>
       <c r="G23">
-        <v>201</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F24" t="s">
         <v>51</v>
       </c>
       <c r="G24">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>51</v>
       </c>
       <c r="G25">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26">
-        <v>254</v>
+      <c r="A26" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1136</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G27">
-        <v>257</v>
+      <c r="A27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="4">
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28">
-        <v>199</v>
+      <c r="A28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="4">
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29">
-        <v>249</v>
+      <c r="A29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="4">
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="C31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="2">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="G31" s="2">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="4">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="E34" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G32" s="4">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="4">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G34" s="4">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="2">
-        <v>620</v>
+      <c r="E35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
         <v>51</v>
       </c>
       <c r="G36">
-        <v>121</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+      <c r="G37">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>140</v>
-      </c>
-      <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38">
-        <v>84</v>
+      <c r="B38" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39">
-        <v>84</v>
+      <c r="A39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D40" t="s">
-        <v>10</v>
-      </c>
-      <c r="E40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40">
-        <v>85</v>
+      <c r="A40" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G40" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D41" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" t="s">
-        <v>145</v>
-      </c>
-      <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41">
-        <v>169</v>
+      <c r="A41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G44" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="6">
-        <v>23</v>
+      <c r="B45" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G45" s="8">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -1921,29 +1953,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B8D9D0-5B74-674B-A2BB-787E5B58BA86}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>57</v>
@@ -1954,19 +1986,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
         <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>51</v>
@@ -1977,19 +2009,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
         <v>51</v>
@@ -2000,19 +2032,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" t="s">
         <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
         <v>51</v>
@@ -2023,19 +2055,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2046,25 +2078,88 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
         <v>51</v>
       </c>
       <c r="G6">
         <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="13">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="13">
+        <v>2643</v>
       </c>
     </row>
   </sheetData>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/18BB9294-EB44-4F0C-A023-8839DCD95717/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8655F5B1-4260-46F5-AB74-5101FBDD06D5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2706FB9E-AB32-F44B-896F-9AF71F4E1127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651E174-F9C4-A84A-A2C4-731BE3D4EE92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23740" yWindow="6920" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>n13c</t>
   </si>
   <si>
-    <t>eitchen2013</t>
-  </si>
-  <si>
     <t>net_type</t>
   </si>
   <si>
@@ -497,6 +494,9 @@
   </si>
   <si>
     <t>combined</t>
+  </si>
+  <si>
+    <t>eichten2013</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,13 +924,13 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -938,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -947,10 +947,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="6">
         <v>93</v>
@@ -961,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -970,10 +970,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="6">
         <v>23</v>
@@ -981,22 +981,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G4" s="6">
         <v>31</v>
@@ -1007,19 +1007,19 @@
         <v>43</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>156</v>
-      </c>
       <c r="E5" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="13">
         <v>247</v>
@@ -1030,19 +1030,19 @@
         <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6" s="4">
         <v>62</v>
@@ -1050,22 +1050,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="4">
         <v>368</v>
@@ -1076,19 +1076,19 @@
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" s="4">
         <v>503</v>
@@ -1099,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1108,10 +1108,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4">
         <v>383</v>
@@ -1122,19 +1122,19 @@
         <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="4">
         <v>48</v>
@@ -1142,22 +1142,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G11" s="4">
         <v>453</v>
@@ -1168,19 +1168,19 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G12" s="2">
         <v>133</v>
@@ -1191,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1203,7 +1203,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -1214,7 +1214,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1226,7 +1226,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>27</v>
@@ -1237,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -1260,7 +1260,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1272,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>26</v>
@@ -1283,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1295,7 +1295,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17">
         <v>27</v>
@@ -1306,19 +1306,19 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2">
         <v>1657</v>
@@ -1329,7 +1329,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1341,7 +1341,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19">
         <v>201</v>
@@ -1352,7 +1352,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1364,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>271</v>
@@ -1375,7 +1375,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1387,7 +1387,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>226</v>
@@ -1398,7 +1398,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1410,7 +1410,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22">
         <v>254</v>
@@ -1421,7 +1421,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1433,7 +1433,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>257</v>
@@ -1444,7 +1444,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1456,7 +1456,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24">
         <v>199</v>
@@ -1467,7 +1467,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1479,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25">
         <v>249</v>
@@ -1487,22 +1487,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2">
         <v>1136</v>
@@ -1510,22 +1510,22 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="4">
         <v>394</v>
@@ -1533,13 +1533,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -1548,7 +1548,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4">
         <v>176</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>12</v>
@@ -1571,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="4">
         <v>406</v>
@@ -1579,22 +1579,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G30" s="4">
         <v>159</v>
@@ -1602,22 +1602,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" s="2">
         <v>620</v>
@@ -1625,22 +1625,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G32">
         <v>121</v>
@@ -1648,22 +1648,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G33">
         <v>77</v>
@@ -1671,22 +1671,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>84</v>
@@ -1694,22 +1694,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G35">
         <v>84</v>
@@ -1717,22 +1717,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G36">
         <v>85</v>
@@ -1740,22 +1740,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" t="s">
-        <v>142</v>
-      </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37">
         <v>169</v>
@@ -1763,22 +1763,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38" s="2">
         <v>73</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>21</v>
@@ -1801,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G39" s="6">
         <v>23</v>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>22</v>
@@ -1824,7 +1824,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="6">
         <v>23</v>
@@ -1832,22 +1832,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G41" s="6">
         <v>23</v>
@@ -1858,19 +1858,19 @@
         <v>44</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G42" s="8">
         <v>107</v>
@@ -1878,22 +1878,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="D43" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43" s="8">
         <v>102</v>
@@ -1901,22 +1901,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G44" s="8">
         <v>106</v>
@@ -1924,22 +1924,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="D45" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G45" s="8">
         <v>617</v>
@@ -1963,22 +1963,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G1" s="2">
         <v>450</v>
@@ -1986,22 +1986,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2">
         <v>121</v>
@@ -2009,22 +2009,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>77</v>
@@ -2032,22 +2032,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>84</v>
@@ -2055,22 +2055,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>84</v>
@@ -2078,22 +2078,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G6">
         <v>84</v>
@@ -2101,20 +2101,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G9" s="13">
         <v>928</v>
@@ -2122,20 +2122,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>150</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>151</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G10" s="13">
         <v>1817</v>
@@ -2143,20 +2143,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>153</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G11" s="13">
         <v>2643</v>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/8655F5B1-4260-46F5-AB74-5101FBDD06D5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/92C36E0D-10AC-4E29-BDE3-A019EE1F7FAD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A651E174-F9C4-A84A-A2C4-731BE3D4EE92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AADAA9-AA9D-374F-B43D-C83276D08617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23740" yWindow="6920" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="159">
   <si>
     <t>nid</t>
   </si>
@@ -190,12 +190,6 @@
     <t>kernel</t>
   </si>
   <si>
-    <t>tissue</t>
-  </si>
-  <si>
-    <t>5*27</t>
-  </si>
-  <si>
     <t>tissue*genotype</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>seedling_leaf3</t>
   </si>
   <si>
-    <t>ril</t>
-  </si>
-  <si>
     <t>n99a_1</t>
   </si>
   <si>
@@ -265,9 +256,6 @@
     <t>n99c_5</t>
   </si>
   <si>
-    <t>23*3</t>
-  </si>
-  <si>
     <t>subid</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>n18e</t>
   </si>
   <si>
-    <t>4*300</t>
-  </si>
-  <si>
     <t>n13e</t>
   </si>
   <si>
@@ -454,15 +439,9 @@
     <t>U</t>
   </si>
   <si>
-    <t>6*103</t>
-  </si>
-  <si>
     <t>Shoot</t>
   </si>
   <si>
-    <t>7*237</t>
-  </si>
-  <si>
     <t>nc02</t>
   </si>
   <si>
@@ -497,6 +476,33 @@
   </si>
   <si>
     <t>eichten2013</t>
+  </si>
+  <si>
+    <t>5 tissues</t>
+  </si>
+  <si>
+    <t>B+M+F1</t>
+  </si>
+  <si>
+    <t>6 tissues</t>
+  </si>
+  <si>
+    <t>4 tissues</t>
+  </si>
+  <si>
+    <t>7 tissues</t>
+  </si>
+  <si>
+    <t>RIL</t>
+  </si>
+  <si>
+    <t>Tissue</t>
+  </si>
+  <si>
+    <t>Genotype</t>
+  </si>
+  <si>
+    <t>Tissue*Genotype</t>
   </si>
 </sst>
 </file>
@@ -896,7 +902,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,7 +930,7 @@
         <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>48</v>
@@ -938,7 +944,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>5</v>
@@ -947,10 +953,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G2" s="6">
         <v>93</v>
@@ -961,7 +967,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -970,10 +976,10 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G3" s="6">
         <v>23</v>
@@ -981,22 +987,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G4" s="6">
         <v>31</v>
@@ -1007,19 +1013,19 @@
         <v>43</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G5" s="13">
         <v>247</v>
@@ -1030,19 +1036,19 @@
         <v>47</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G6" s="4">
         <v>62</v>
@@ -1050,22 +1056,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G7" s="4">
         <v>368</v>
@@ -1076,7 +1082,7 @@
         <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
@@ -1085,10 +1091,10 @@
         <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G8" s="4">
         <v>503</v>
@@ -1099,7 +1105,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>4</v>
@@ -1108,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G9" s="4">
         <v>383</v>
@@ -1122,19 +1128,19 @@
         <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G10" s="4">
         <v>48</v>
@@ -1142,22 +1148,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G11" s="4">
         <v>453</v>
@@ -1168,19 +1174,19 @@
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2">
         <v>133</v>
@@ -1191,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1203,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G13">
         <v>26</v>
@@ -1214,7 +1220,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1226,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G14">
         <v>27</v>
@@ -1237,7 +1243,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -1249,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -1260,7 +1266,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G16">
         <v>26</v>
@@ -1283,7 +1289,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -1295,7 +1301,7 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G17">
         <v>27</v>
@@ -1306,19 +1312,19 @@
         <v>34</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G18" s="2">
         <v>1657</v>
@@ -1329,7 +1335,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1341,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G19">
         <v>201</v>
@@ -1352,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1364,7 +1370,7 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G20">
         <v>271</v>
@@ -1375,7 +1381,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
@@ -1387,7 +1393,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G21">
         <v>226</v>
@@ -1398,7 +1404,7 @@
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
@@ -1410,7 +1416,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G22">
         <v>254</v>
@@ -1421,7 +1427,7 @@
         <v>39</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
         <v>13</v>
@@ -1433,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G23">
         <v>257</v>
@@ -1444,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1456,7 +1462,7 @@
         <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G24">
         <v>199</v>
@@ -1467,7 +1473,7 @@
         <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1479,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G25">
         <v>249</v>
@@ -1487,22 +1493,22 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G26" s="2">
         <v>1136</v>
@@ -1510,13 +1516,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>51</v>
@@ -1525,7 +1531,7 @@
         <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G27" s="4">
         <v>394</v>
@@ -1533,13 +1539,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>9</v>
@@ -1548,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G28" s="4">
         <v>176</v>
@@ -1556,13 +1562,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>12</v>
@@ -1571,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G29" s="4">
         <v>406</v>
@@ -1579,22 +1585,22 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G30" s="4">
         <v>159</v>
@@ -1602,22 +1608,22 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G31" s="2">
         <v>620</v>
@@ -1625,22 +1631,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G32">
         <v>121</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G33">
         <v>77</v>
@@ -1671,22 +1677,22 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G34">
         <v>84</v>
@@ -1694,22 +1700,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G35">
         <v>84</v>
@@ -1717,22 +1723,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G36">
         <v>85</v>
@@ -1740,22 +1746,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
         <v>52</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G37">
         <v>169</v>
@@ -1763,22 +1769,22 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="G38" s="2">
         <v>73</v>
@@ -1786,13 +1792,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>21</v>
@@ -1801,7 +1807,7 @@
         <v>21</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G39" s="6">
         <v>23</v>
@@ -1809,13 +1815,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>22</v>
@@ -1824,7 +1830,7 @@
         <v>22</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G40" s="6">
         <v>23</v>
@@ -1832,22 +1838,22 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="G41" s="6">
         <v>23</v>
@@ -1858,19 +1864,19 @@
         <v>44</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="G42" s="8">
         <v>107</v>
@@ -1878,22 +1884,22 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="G43" s="8">
         <v>102</v>
@@ -1901,22 +1907,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="G44" s="8">
         <v>106</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="G45" s="8">
         <v>617</v>
@@ -1963,22 +1969,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2">
         <v>450</v>
@@ -1986,19 +1992,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2009,19 +2015,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2032,19 +2038,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
         <v>50</v>
@@ -2055,19 +2061,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -2078,19 +2084,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2101,20 +2107,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G9" s="13">
         <v>928</v>
@@ -2122,20 +2128,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G10" s="13">
         <v>1817</v>
@@ -2143,20 +2149,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G11" s="13">
         <v>2643</v>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/92C36E0D-10AC-4E29-BDE3-A019EE1F7FAD/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/CA9A9903-0064-4581-A12C-547531175E94/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44AADAA9-AA9D-374F-B43D-C83276D08617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C2DBE6-C25F-894D-9B97-5FB0AA791E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23740" yWindow="6920" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="21680" yWindow="2500" windowWidth="12620" windowHeight="20920" activeTab="2" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="159">
   <si>
     <t>nid</t>
   </si>
@@ -900,9 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2171,4 +2172,506 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB62C2-8B32-9344-8FC7-B612ECB17F5D}">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/CA9A9903-0064-4581-A12C-547531175E94/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E91D92ED-795B-4AC4-8BD5-4BC96E398109/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C2DBE6-C25F-894D-9B97-5FB0AA791E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C088DCE-BD28-0F4E-8C2A-6D12A037D6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21680" yWindow="2500" windowWidth="12620" windowHeight="20920" activeTab="2" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
+    <workbookView xWindow="21680" yWindow="2500" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="162">
   <si>
     <t>nid</t>
   </si>
@@ -504,6 +504,15 @@
   </si>
   <si>
     <t>Tissue*Genotype</t>
+  </si>
+  <si>
+    <t>n14e</t>
+  </si>
+  <si>
+    <t>rn14e</t>
+  </si>
+  <si>
+    <t>chen2014</t>
   </si>
 </sst>
 </file>
@@ -899,11 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84538881-B3D2-0045-8E78-F8CD46EC8A9B}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D45"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,16 +997,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>82</v>
@@ -1006,67 +1015,67 @@
         <v>156</v>
       </c>
       <c r="G4" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G6" s="13">
         <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G6" s="4">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>82</v>
@@ -1075,21 +1084,21 @@
         <v>157</v>
       </c>
       <c r="G7" s="4">
-        <v>368</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>82</v>
@@ -1098,21 +1107,21 @@
         <v>157</v>
       </c>
       <c r="G8" s="4">
-        <v>503</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>82</v>
@@ -1121,21 +1130,21 @@
         <v>157</v>
       </c>
       <c r="G9" s="4">
-        <v>383</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>82</v>
@@ -1144,21 +1153,21 @@
         <v>157</v>
       </c>
       <c r="G10" s="4">
-        <v>48</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>82</v>
@@ -1167,58 +1176,58 @@
         <v>157</v>
       </c>
       <c r="G11" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="4">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="2">
         <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>101</v>
@@ -1227,21 +1236,21 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
         <v>157</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>101</v>
@@ -1250,10 +1259,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
         <v>157</v>
@@ -1264,7 +1273,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>101</v>
@@ -1273,21 +1282,21 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" t="s">
         <v>157</v>
       </c>
       <c r="G16">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>101</v>
@@ -1296,67 +1305,67 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
         <v>157</v>
       </c>
       <c r="G17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G18">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="2">
         <v>1657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19">
-        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>102</v>
@@ -1365,21 +1374,21 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
         <v>157</v>
       </c>
       <c r="G20">
-        <v>271</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>102</v>
@@ -1388,21 +1397,21 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
         <v>157</v>
       </c>
       <c r="G21">
-        <v>226</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>102</v>
@@ -1411,21 +1420,21 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
         <v>157</v>
       </c>
       <c r="G22">
-        <v>254</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>102</v>
@@ -1434,21 +1443,21 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
         <v>157</v>
       </c>
       <c r="G23">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>102</v>
@@ -1457,21 +1466,21 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
       </c>
       <c r="G24">
-        <v>199</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>102</v>
@@ -1480,67 +1489,67 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>157</v>
       </c>
       <c r="G25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26">
         <v>249</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>1136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="4">
-        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>105</v>
@@ -1549,21 +1558,21 @@
         <v>60</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G28" s="4">
-        <v>176</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>105</v>
@@ -1572,21 +1581,21 @@
         <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G29" s="4">
-        <v>406</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>105</v>
@@ -1595,67 +1604,67 @@
         <v>60</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G30" s="4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="4">
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G32" s="2">
         <v>620</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="E32" t="s">
-        <v>130</v>
-      </c>
-      <c r="F32" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>107</v>
@@ -1664,21 +1673,21 @@
         <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
         <v>157</v>
       </c>
       <c r="G33">
-        <v>77</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>107</v>
@@ -1687,21 +1696,21 @@
         <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
         <v>157</v>
       </c>
       <c r="G34">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>107</v>
@@ -1710,10 +1719,10 @@
         <v>89</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
         <v>157</v>
@@ -1724,7 +1733,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>107</v>
@@ -1733,21 +1742,21 @@
         <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F36" t="s">
         <v>157</v>
       </c>
       <c r="G36">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>107</v>
@@ -1756,67 +1765,67 @@
         <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F37" t="s">
         <v>157</v>
       </c>
       <c r="G37">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G38">
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G39" s="2">
         <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="G39" s="6">
-        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>110</v>
@@ -1825,10 +1834,10 @@
         <v>85</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>156</v>
@@ -1839,7 +1848,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>110</v>
@@ -1848,10 +1857,10 @@
         <v>85</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>156</v>
@@ -1861,40 +1870,40 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G42" s="8">
-        <v>107</v>
+      <c r="A42" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="6">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>82</v>
@@ -1903,21 +1912,21 @@
         <v>155</v>
       </c>
       <c r="G43" s="8">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>82</v>
@@ -1926,21 +1935,21 @@
         <v>155</v>
       </c>
       <c r="G44" s="8">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>82</v>
@@ -1949,6 +1958,29 @@
         <v>155</v>
       </c>
       <c r="G45" s="8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="G46" s="8">
         <v>617</v>
       </c>
     </row>
@@ -2178,7 +2210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFB62C2-8B32-9344-8FC7-B612ECB17F5D}">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/data/10.dataset.xlsx
+++ b/data/10.dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/E91D92ED-795B-4AC4-8BD5-4BC96E398109/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Caches/Transmit/85C1CA83-F9EC-4B9F-93B9-EF3354428ED9/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/grn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C088DCE-BD28-0F4E-8C2A-6D12A037D6D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063A28CE-D1D3-B940-AFD1-89CBE31132B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21680" yWindow="2500" windowWidth="12620" windowHeight="20920" xr2:uid="{4FD57CCC-EDC9-D44E-85E4-9736F8F2D8D1}"/>
   </bookViews>
@@ -350,9 +350,6 @@
     <t>rn19a</t>
   </si>
   <si>
-    <t>rn99a</t>
-  </si>
-  <si>
     <t>rn99c</t>
   </si>
   <si>
@@ -513,6 +510,9 @@
   </si>
   <si>
     <t>chen2014</t>
+  </si>
+  <si>
+    <t>rn20d</t>
   </si>
 </sst>
 </file>
@@ -912,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G2" s="6">
         <v>93</v>
@@ -989,7 +989,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="6">
         <v>23</v>
@@ -997,13 +997,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>21</v>
@@ -1012,7 +1012,7 @@
         <v>82</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G4" s="6">
         <v>53</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>68</v>
@@ -1035,7 +1035,7 @@
         <v>82</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="6">
         <v>31</v>
@@ -1046,19 +1046,19 @@
         <v>43</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>148</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="13">
         <v>247</v>
@@ -1072,7 +1072,7 @@
         <v>95</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>57</v>
@@ -1081,7 +1081,7 @@
         <v>82</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="4">
         <v>62</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>98</v>
@@ -1104,7 +1104,7 @@
         <v>82</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="4">
         <v>368</v>
@@ -1127,7 +1127,7 @@
         <v>82</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G9" s="4">
         <v>503</v>
@@ -1150,7 +1150,7 @@
         <v>82</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G10" s="4">
         <v>383</v>
@@ -1173,7 +1173,7 @@
         <v>82</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G11" s="4">
         <v>48</v>
@@ -1196,7 +1196,7 @@
         <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" s="4">
         <v>453</v>
@@ -1213,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G13" s="2">
         <v>133</v>
@@ -1242,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14">
         <v>26</v>
@@ -1265,7 +1265,7 @@
         <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G15">
         <v>27</v>
@@ -1288,7 +1288,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G16">
         <v>27</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G17">
         <v>26</v>
@@ -1334,7 +1334,7 @@
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18">
         <v>27</v>
@@ -1351,13 +1351,13 @@
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="2">
         <v>1657</v>
@@ -1380,7 +1380,7 @@
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G20">
         <v>201</v>
@@ -1403,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G21">
         <v>271</v>
@@ -1426,7 +1426,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G22">
         <v>226</v>
@@ -1449,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G23">
         <v>254</v>
@@ -1472,7 +1472,7 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24">
         <v>257</v>
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25">
         <v>199</v>
@@ -1518,7 +1518,7 @@
         <v>20</v>
       </c>
       <c r="F26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26">
         <v>249</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>105</v>
@@ -1535,13 +1535,13 @@
         <v>60</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G27" s="2">
         <v>1136</v>
@@ -1564,7 +1564,7 @@
         <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" s="4">
         <v>394</v>
@@ -1587,7 +1587,7 @@
         <v>9</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" s="4">
         <v>176</v>
@@ -1610,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" s="4">
         <v>406</v>
@@ -1633,7 +1633,7 @@
         <v>61</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G31" s="4">
         <v>159</v>
@@ -1644,19 +1644,19 @@
         <v>62</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G32" s="2">
         <v>620</v>
@@ -1667,7 +1667,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>89</v>
@@ -1676,10 +1676,10 @@
         <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G33">
         <v>121</v>
@@ -1690,7 +1690,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>89</v>
@@ -1699,10 +1699,10 @@
         <v>64</v>
       </c>
       <c r="E34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34">
         <v>77</v>
@@ -1713,7 +1713,7 @@
         <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>89</v>
@@ -1722,10 +1722,10 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G35">
         <v>84</v>
@@ -1736,7 +1736,7 @@
         <v>66</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>89</v>
@@ -1745,10 +1745,10 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36">
         <v>84</v>
@@ -1759,7 +1759,7 @@
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>89</v>
@@ -1768,10 +1768,10 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G37">
         <v>85</v>
@@ -1779,10 +1779,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>89</v>
@@ -1791,10 +1791,10 @@
         <v>52</v>
       </c>
       <c r="E38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G38">
         <v>169</v>
@@ -1802,22 +1802,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="2">
         <v>73</v>
@@ -1825,10 +1825,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>85</v>
@@ -1840,7 +1840,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G40" s="6">
         <v>23</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>85</v>
@@ -1863,7 +1863,7 @@
         <v>22</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G41" s="6">
         <v>23</v>
@@ -1871,10 +1871,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>85</v>
@@ -1886,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="6">
         <v>23</v>
@@ -1903,13 +1903,13 @@
         <v>2</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G43" s="8">
         <v>107</v>
@@ -1917,22 +1917,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C44" s="8" t="s">
-        <v>120</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="8">
         <v>102</v>
@@ -1940,22 +1940,22 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G45" s="8">
         <v>106</v>
@@ -1972,13 +1972,13 @@
         <v>88</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G46" s="8">
         <v>617</v>
@@ -2005,7 +2005,7 @@
         <v>69</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>89</v>
@@ -2028,7 +2028,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>89</v>
@@ -2051,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -2074,7 +2074,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
@@ -2097,7 +2097,7 @@
         <v>74</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -2120,7 +2120,7 @@
         <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -2129,7 +2129,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -2140,20 +2140,20 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="13" t="s">
         <v>139</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>140</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="13">
         <v>928</v>
@@ -2161,20 +2161,20 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>143</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G10" s="13">
         <v>1817</v>
@@ -2182,20 +2182,20 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>145</v>
-      </c>
       <c r="C11" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
         <v>82</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" s="13">
         <v>2643</v>
@@ -2227,12 +2227,12 @@
         <v>88</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>86</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>89</v>
@@ -2276,24 +2276,24 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2304,7 +2304,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2323,7 +2323,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>57</v>
@@ -2419,10 +2419,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>68</v>
@@ -2513,7 +2513,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>89</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2631,10 +2631,10 @@
         <v>43</v>
       </c>
       <c r="B38" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>147</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2650,18 +2650,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>85</v>
@@ -2672,18 +2672,18 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>85</v>
@@ -2694,7 +2694,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>85</v>
